--- a/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22).xlsx
+++ b/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t xml:space="preserve">思科大连CX Center Training FY21Q1 K8S-2培训签到表
 (培训时间：11月26日-12月22日)     </t>
@@ -50,6 +50,9 @@
     <t>11.26签到</t>
   </si>
   <si>
+    <t>11.26作业</t>
+  </si>
+  <si>
     <t>12.1签到</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
   <si>
     <t>jinzha4</t>
@@ -494,6 +500,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -502,92 +621,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,49 +637,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,13 +672,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,157 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,11 +903,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,37 +971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,40 +1000,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,134 +1018,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1564,10 +1570,10 @@
     <col min="6" max="6" width="26.7583333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="27.6416666666667" customWidth="1"/>
     <col min="8" max="9" width="14.3666666666667" customWidth="1"/>
-    <col min="10" max="17" width="11.625" customWidth="1"/>
+    <col min="10" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.5" customHeight="1" spans="1:17">
+    <row r="1" ht="58.5" customHeight="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1587,8 +1593,9 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-    </row>
-    <row r="2" ht="20.25" spans="1:17">
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" ht="20.25" spans="1:18">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1608,8 +1615,9 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="42" customHeight="1" spans="1:17">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="42" customHeight="1" spans="1:18">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1659,25 +1667,28 @@
       <c r="Q3" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1685,29 +1696,32 @@
       <c r="J4" s="28">
         <v>1</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R4" s="28"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -1721,22 +1735,23 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:17">
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:18">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -1752,22 +1767,23 @@
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:17">
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:18">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -1782,22 +1798,23 @@
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:17">
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:18">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -1813,22 +1830,23 @@
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:17">
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:18">
       <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -1844,22 +1862,23 @@
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15"/>
@@ -1875,22 +1894,23 @@
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1906,25 +1926,26 @@
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R11" s="28"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1939,25 +1960,26 @@
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:17">
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:18">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1972,25 +1994,26 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:17">
+      <c r="R13" s="29"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:18">
       <c r="A14" s="12">
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -2005,22 +2028,23 @@
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:17">
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:18">
       <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -2036,25 +2060,26 @@
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2069,22 +2094,23 @@
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:17">
+      <c r="R16" s="28"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:18">
       <c r="A17" s="12">
         <v>14</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -2098,25 +2124,26 @@
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:17">
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:18">
       <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -2131,25 +2158,26 @@
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:17">
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:18">
       <c r="A19" s="12">
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -2164,25 +2192,26 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:17">
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:18">
       <c r="A20" s="12">
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -2197,22 +2226,23 @@
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -2228,22 +2258,23 @@
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A22" s="12">
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -2259,25 +2290,26 @@
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:17">
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:18">
       <c r="A23" s="12">
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -2292,25 +2324,26 @@
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:17">
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:18">
       <c r="A24" s="12">
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="F24" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -2325,25 +2358,26 @@
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:17">
+      <c r="R24" s="29"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:18">
       <c r="A25" s="12">
         <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -2358,25 +2392,26 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:17">
+      <c r="R25" s="29"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:18">
       <c r="A26" s="12">
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -2391,22 +2426,23 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:17">
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:18">
       <c r="A27" s="12">
         <v>24</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -2422,22 +2458,23 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:17">
+      <c r="R27" s="29"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:18">
       <c r="A28" s="12">
         <v>25</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -2453,22 +2490,23 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:17">
+      <c r="R28" s="29"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:18">
       <c r="A29" s="12">
         <v>26</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -2483,22 +2521,23 @@
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:17">
+      <c r="R29" s="29"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:18">
       <c r="A30" s="12">
         <v>27</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -2514,25 +2553,26 @@
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:17">
+      <c r="R30" s="29"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:18">
       <c r="A31" s="12">
         <v>28</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -2547,25 +2587,26 @@
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:17">
+      <c r="R31" s="29"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:18">
       <c r="A32" s="12">
         <v>29</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -2580,25 +2621,26 @@
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R32" s="29"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A33" s="12">
         <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -2613,25 +2655,26 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:17">
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:18">
       <c r="A34" s="12">
         <v>31</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -2646,22 +2689,23 @@
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R34" s="29"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A35" s="12">
         <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -2677,25 +2721,26 @@
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
+      <c r="R35" s="28"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A36" s="12">
         <v>33</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -2710,25 +2755,26 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" spans="1:17">
+      <c r="R36" s="28"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:18">
       <c r="A37" s="12">
         <v>34</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -2743,22 +2789,23 @@
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
-    </row>
-    <row r="38" ht="18" customHeight="1" spans="1:17">
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:18">
       <c r="A38" s="12">
         <v>35</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -2774,22 +2821,23 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="1:17">
+      <c r="R38" s="29"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="1:18">
       <c r="A39" s="12">
         <v>36</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2802,8 +2850,9 @@
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" spans="1:17">
+      <c r="R39" s="29"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" spans="1:18">
       <c r="A40" s="12"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2821,8 +2870,9 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
-    </row>
-    <row r="41" ht="18" customHeight="1" spans="1:17">
+      <c r="R40" s="29"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" spans="1:18">
       <c r="A41" s="12"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2840,8 +2890,9 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
-    </row>
-    <row r="42" ht="18" customHeight="1" spans="1:17">
+      <c r="R41" s="29"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" spans="1:18">
       <c r="A42" s="12"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2859,8 +2910,9 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
-    </row>
-    <row r="43" ht="18" customHeight="1" spans="1:17">
+      <c r="R42" s="29"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:18">
       <c r="A43" s="12"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -2878,18 +2930,17 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
-    </row>
-    <row r="44" ht="18" customHeight="1" spans="7:17">
+      <c r="R43" s="29"/>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="7:18">
       <c r="G44" s="24"/>
       <c r="I44" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J44" s="30">
         <v>0</v>
       </c>
-      <c r="K44" s="30">
-        <v>0</v>
-      </c>
+      <c r="K44" s="30"/>
       <c r="L44" s="30">
         <v>0</v>
       </c>
@@ -2906,6 +2957,9 @@
         <v>0</v>
       </c>
       <c r="Q44" s="30">
+        <v>0</v>
+      </c>
+      <c r="R44" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2917,10 +2971,10 @@
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1" spans="2:3">
       <c r="B49" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="2:3">
@@ -2929,18 +2983,18 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="D53" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27">
@@ -2949,7 +3003,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27">
@@ -2958,7 +3012,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="27">
@@ -2967,7 +3021,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="27">
@@ -2976,8 +3030,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22).xlsx
+++ b/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t xml:space="preserve">思科大连CX Center Training FY21Q1 K8S-2培训签到表
 (培训时间：11月26日-12月22日)     </t>
@@ -402,8 +402,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -500,6 +500,149 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -507,149 +650,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -672,19 +672,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,109 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,30 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -947,11 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,17 +953,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,16 +976,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,134 +1018,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1727,8 +1727,12 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -1791,7 +1795,9 @@
       <c r="J7" s="29">
         <v>1</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -1823,7 +1829,9 @@
       <c r="J8" s="29">
         <v>1</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -1987,7 +1995,9 @@
       <c r="J13" s="29">
         <v>1</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -2021,7 +2031,9 @@
       <c r="J14" s="29">
         <v>1</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -2151,7 +2163,9 @@
       <c r="J18" s="29">
         <v>1</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
